--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fat4-Dchs1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.713363</v>
+        <v>16.60580966666667</v>
       </c>
       <c r="H2">
-        <v>47.140089</v>
+        <v>49.817429</v>
       </c>
       <c r="I2">
-        <v>0.7405254006801951</v>
+        <v>0.8577430056934899</v>
       </c>
       <c r="J2">
-        <v>0.740525400680195</v>
+        <v>0.8577430056934898</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.184475000000001</v>
+        <v>11.195312</v>
       </c>
       <c r="N2">
-        <v>24.553425</v>
+        <v>33.585936</v>
       </c>
       <c r="O2">
-        <v>0.7204961874195497</v>
+        <v>0.8263729865424168</v>
       </c>
       <c r="P2">
-        <v>0.7204961874195498</v>
+        <v>0.8263729865424166</v>
       </c>
       <c r="Q2">
-        <v>128.605626639425</v>
+        <v>185.9072202309494</v>
       </c>
       <c r="R2">
-        <v>1157.450639754825</v>
+        <v>1673.164982078544</v>
       </c>
       <c r="S2">
-        <v>0.5335457278774149</v>
+        <v>0.7088156493007984</v>
       </c>
       <c r="T2">
-        <v>0.5335457278774149</v>
+        <v>0.7088156493007983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.713363</v>
+        <v>16.60580966666667</v>
       </c>
       <c r="H3">
-        <v>47.140089</v>
+        <v>49.817429</v>
       </c>
       <c r="I3">
-        <v>0.7405254006801951</v>
+        <v>0.8577430056934899</v>
       </c>
       <c r="J3">
-        <v>0.740525400680195</v>
+        <v>0.8577430056934898</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.967152</v>
       </c>
       <c r="O3">
-        <v>0.1751002259665582</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="P3">
-        <v>0.1751002259665583</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="Q3">
-        <v>31.25467515072533</v>
+        <v>33.02979678802312</v>
       </c>
       <c r="R3">
-        <v>281.292076356528</v>
+        <v>297.268171092208</v>
       </c>
       <c r="S3">
-        <v>0.1296661649930783</v>
+        <v>0.1259339837769166</v>
       </c>
       <c r="T3">
-        <v>0.1296661649930783</v>
+        <v>0.1259339837769165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.713363</v>
+        <v>16.60580966666667</v>
       </c>
       <c r="H4">
-        <v>47.140089</v>
+        <v>49.817429</v>
       </c>
       <c r="I4">
-        <v>0.7405254006801951</v>
+        <v>0.8577430056934899</v>
       </c>
       <c r="J4">
-        <v>0.740525400680195</v>
+        <v>0.8577430056934898</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.271258</v>
+        <v>0.02602966666666666</v>
       </c>
       <c r="N4">
-        <v>0.813774</v>
+        <v>0.07808899999999999</v>
       </c>
       <c r="O4">
-        <v>0.02387940030448528</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="P4">
-        <v>0.02387940030448529</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="Q4">
-        <v>4.262375420654</v>
+        <v>0.4322436903534445</v>
       </c>
       <c r="R4">
-        <v>38.361378785886</v>
+        <v>3.890193213181</v>
       </c>
       <c r="S4">
-        <v>0.01768330247848174</v>
+        <v>0.001648032237012839</v>
       </c>
       <c r="T4">
-        <v>0.01768330247848174</v>
+        <v>0.001648032237012839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.713363</v>
+        <v>16.60580966666667</v>
       </c>
       <c r="H5">
-        <v>47.140089</v>
+        <v>49.817429</v>
       </c>
       <c r="I5">
-        <v>0.7405254006801951</v>
+        <v>0.8577430056934899</v>
       </c>
       <c r="J5">
-        <v>0.740525400680195</v>
+        <v>0.8577430056934898</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7692</v>
+        <v>0.2855723333333333</v>
       </c>
       <c r="N5">
-        <v>2.3076</v>
+        <v>0.856717</v>
       </c>
       <c r="O5">
-        <v>0.06771425990831635</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="P5">
-        <v>0.06771425990831637</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="Q5">
-        <v>12.0867188196</v>
+        <v>4.742159813399223</v>
       </c>
       <c r="R5">
-        <v>108.7804693764</v>
+        <v>42.679438320593</v>
       </c>
       <c r="S5">
-        <v>0.05014412945036884</v>
+        <v>0.01808061614307941</v>
       </c>
       <c r="T5">
-        <v>0.05014412945036884</v>
+        <v>0.01808061614307941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.713363</v>
+        <v>16.60580966666667</v>
       </c>
       <c r="H6">
-        <v>47.140089</v>
+        <v>49.817429</v>
       </c>
       <c r="I6">
-        <v>0.7405254006801951</v>
+        <v>0.8577430056934899</v>
       </c>
       <c r="J6">
-        <v>0.740525400680195</v>
+        <v>0.8577430056934898</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.01723733333333333</v>
+        <v>0.04091133333333333</v>
       </c>
       <c r="N6">
-        <v>0.051712</v>
+        <v>0.122734</v>
       </c>
       <c r="O6">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="P6">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="Q6">
-        <v>0.2708564758186667</v>
+        <v>0.679365814542889</v>
       </c>
       <c r="R6">
-        <v>2.437708282368</v>
+        <v>6.114292330886001</v>
       </c>
       <c r="S6">
-        <v>0.001123701344313344</v>
+        <v>0.00259024431837434</v>
       </c>
       <c r="T6">
-        <v>0.001123701344313344</v>
+        <v>0.002590244318374339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.713363</v>
+        <v>16.60580966666667</v>
       </c>
       <c r="H7">
-        <v>47.140089</v>
+        <v>49.817429</v>
       </c>
       <c r="I7">
-        <v>0.7405254006801951</v>
+        <v>0.8577430056934899</v>
       </c>
       <c r="J7">
-        <v>0.740525400680195</v>
+        <v>0.8577430056934898</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.128277</v>
+        <v>0.010653</v>
       </c>
       <c r="N7">
-        <v>0.384831</v>
+        <v>0.031959</v>
       </c>
       <c r="O7">
-        <v>0.01129248845327496</v>
+        <v>0.000786342660716947</v>
       </c>
       <c r="P7">
-        <v>0.01129248845327496</v>
+        <v>0.0007863426607169469</v>
       </c>
       <c r="Q7">
-        <v>2.015663065551</v>
+        <v>0.1769016903790001</v>
       </c>
       <c r="R7">
-        <v>18.140967589959</v>
+        <v>1.592115213411</v>
       </c>
       <c r="S7">
-        <v>0.008362374536537915</v>
+        <v>0.0006744799173083703</v>
       </c>
       <c r="T7">
-        <v>0.008362374536537915</v>
+        <v>0.0006744799173083701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>7.530866</v>
       </c>
       <c r="I8">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="J8">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.184475000000001</v>
+        <v>11.195312</v>
       </c>
       <c r="N8">
-        <v>24.553425</v>
+        <v>33.585936</v>
       </c>
       <c r="O8">
-        <v>0.7204961874195497</v>
+        <v>0.8263729865424168</v>
       </c>
       <c r="P8">
-        <v>0.7204961874195498</v>
+        <v>0.8263729865424166</v>
       </c>
       <c r="Q8">
-        <v>20.54539483511667</v>
+        <v>28.10346483339733</v>
       </c>
       <c r="R8">
-        <v>184.90855351605</v>
+        <v>252.931183500576</v>
       </c>
       <c r="S8">
-        <v>0.0852366100012513</v>
+        <v>0.1071511673873677</v>
       </c>
       <c r="T8">
-        <v>0.08523661000125131</v>
+        <v>0.1071511673873677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>7.530866</v>
       </c>
       <c r="I9">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="J9">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.967152</v>
       </c>
       <c r="O9">
-        <v>0.1751002259665582</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="P9">
-        <v>0.1751002259665583</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="Q9">
         <v>4.993091345959111</v>
@@ -1013,10 +1013,10 @@
         <v>44.937822113632</v>
       </c>
       <c r="S9">
-        <v>0.02071482116414254</v>
+        <v>0.01903735250307944</v>
       </c>
       <c r="T9">
-        <v>0.02071482116414255</v>
+        <v>0.01903735250307944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>7.530866</v>
       </c>
       <c r="I10">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="J10">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.271258</v>
+        <v>0.02602966666666666</v>
       </c>
       <c r="N10">
-        <v>0.813774</v>
+        <v>0.07808899999999999</v>
       </c>
       <c r="O10">
-        <v>0.02387940030448528</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="P10">
-        <v>0.02387940030448529</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="Q10">
-        <v>0.6809358831426666</v>
+        <v>0.06534197723044442</v>
       </c>
       <c r="R10">
-        <v>6.128422948283999</v>
+        <v>0.5880777950739999</v>
       </c>
       <c r="S10">
-        <v>0.002824996393259118</v>
+        <v>0.0002491318839561939</v>
       </c>
       <c r="T10">
-        <v>0.002824996393259119</v>
+        <v>0.0002491318839561939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>7.530866</v>
       </c>
       <c r="I11">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="J11">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7692</v>
+        <v>0.2855723333333333</v>
       </c>
       <c r="N11">
-        <v>2.3076</v>
+        <v>0.856717</v>
       </c>
       <c r="O11">
-        <v>0.06771425990831635</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="P11">
-        <v>0.06771425990831637</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="Q11">
-        <v>1.9309140424</v>
+        <v>0.7168689918802221</v>
       </c>
       <c r="R11">
-        <v>17.3782263816</v>
+        <v>6.451820926921999</v>
       </c>
       <c r="S11">
-        <v>0.008010776551087576</v>
+        <v>0.002733234133197999</v>
       </c>
       <c r="T11">
-        <v>0.008010776551087577</v>
+        <v>0.002733234133197999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>7.530866</v>
       </c>
       <c r="I12">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="J12">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.01723733333333333</v>
+        <v>0.04091133333333333</v>
       </c>
       <c r="N12">
-        <v>0.051712</v>
+        <v>0.122734</v>
       </c>
       <c r="O12">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="P12">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="Q12">
-        <v>0.04327068251022222</v>
+        <v>0.1026992564048889</v>
       </c>
       <c r="R12">
-        <v>0.389436142592</v>
+        <v>0.924293307644</v>
       </c>
       <c r="S12">
-        <v>0.0001795169340482929</v>
+        <v>0.0003915654272109965</v>
       </c>
       <c r="T12">
-        <v>0.000179516934048293</v>
+        <v>0.0003915654272109964</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>7.530866</v>
       </c>
       <c r="I13">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="J13">
-        <v>0.1183026523797793</v>
+        <v>0.1296644119935396</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.128277</v>
+        <v>0.010653</v>
       </c>
       <c r="N13">
-        <v>0.384831</v>
+        <v>0.031959</v>
       </c>
       <c r="O13">
-        <v>0.01129248845327496</v>
+        <v>0.000786342660716947</v>
       </c>
       <c r="P13">
-        <v>0.01129248845327496</v>
+        <v>0.0007863426607169469</v>
       </c>
       <c r="Q13">
-        <v>0.322012299294</v>
+        <v>0.026742105166</v>
       </c>
       <c r="R13">
-        <v>2.898110693646</v>
+        <v>0.240678946494</v>
       </c>
       <c r="S13">
-        <v>0.001335931335990459</v>
+        <v>0.0001019606587272984</v>
       </c>
       <c r="T13">
-        <v>0.001335931335990459</v>
+        <v>0.0001019606587272983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.976988</v>
+        <v>0.21333</v>
       </c>
       <c r="H14">
-        <v>8.930963999999999</v>
+        <v>0.6399899999999999</v>
       </c>
       <c r="I14">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="J14">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.184475000000001</v>
+        <v>11.195312</v>
       </c>
       <c r="N14">
-        <v>24.553425</v>
+        <v>33.585936</v>
       </c>
       <c r="O14">
-        <v>0.7204961874195497</v>
+        <v>0.8263729865424168</v>
       </c>
       <c r="P14">
-        <v>0.7204961874195498</v>
+        <v>0.8263729865424166</v>
       </c>
       <c r="Q14">
-        <v>24.3650838613</v>
+        <v>2.38829590896</v>
       </c>
       <c r="R14">
-        <v>219.2857547517</v>
+        <v>21.49466318064</v>
       </c>
       <c r="S14">
-        <v>0.1010833409335945</v>
+        <v>0.009105948189257577</v>
       </c>
       <c r="T14">
-        <v>0.1010833409335945</v>
+        <v>0.009105948189257576</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.976988</v>
+        <v>0.21333</v>
       </c>
       <c r="H15">
-        <v>8.930963999999999</v>
+        <v>0.6399899999999999</v>
       </c>
       <c r="I15">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="J15">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.967152</v>
       </c>
       <c r="O15">
-        <v>0.1751002259665582</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="P15">
-        <v>0.1751002259665583</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="Q15">
-        <v>5.921379966058667</v>
+        <v>0.42432417872</v>
       </c>
       <c r="R15">
-        <v>53.292419694528</v>
+        <v>3.81891760848</v>
       </c>
       <c r="S15">
-        <v>0.02456600901986507</v>
+        <v>0.001617837208688325</v>
       </c>
       <c r="T15">
-        <v>0.02456600901986507</v>
+        <v>0.001617837208688325</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.976988</v>
+        <v>0.21333</v>
       </c>
       <c r="H16">
-        <v>8.930963999999999</v>
+        <v>0.6399899999999999</v>
       </c>
       <c r="I16">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="J16">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.271258</v>
+        <v>0.02602966666666666</v>
       </c>
       <c r="N16">
-        <v>0.813774</v>
+        <v>0.07808899999999999</v>
       </c>
       <c r="O16">
-        <v>0.02387940030448528</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="P16">
-        <v>0.02387940030448529</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="Q16">
-        <v>0.8075318109039999</v>
+        <v>0.005552908789999999</v>
       </c>
       <c r="R16">
-        <v>7.267786298136</v>
+        <v>0.04997617910999999</v>
       </c>
       <c r="S16">
-        <v>0.003350204490204318</v>
+        <v>2.117179012521594E-05</v>
       </c>
       <c r="T16">
-        <v>0.003350204490204318</v>
+        <v>2.117179012521594E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.976988</v>
+        <v>0.21333</v>
       </c>
       <c r="H17">
-        <v>8.930963999999999</v>
+        <v>0.6399899999999999</v>
       </c>
       <c r="I17">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="J17">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7692</v>
+        <v>0.2855723333333333</v>
       </c>
       <c r="N17">
-        <v>2.3076</v>
+        <v>0.856717</v>
       </c>
       <c r="O17">
-        <v>0.06771425990831635</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="P17">
-        <v>0.06771425990831637</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="Q17">
-        <v>2.2898991696</v>
+        <v>0.06092114586999999</v>
       </c>
       <c r="R17">
-        <v>20.6090925264</v>
+        <v>0.54829031283</v>
       </c>
       <c r="S17">
-        <v>0.009500096933049571</v>
+        <v>0.0002322764092343945</v>
       </c>
       <c r="T17">
-        <v>0.009500096933049573</v>
+        <v>0.0002322764092343945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.976988</v>
+        <v>0.21333</v>
       </c>
       <c r="H18">
-        <v>8.930963999999999</v>
+        <v>0.6399899999999999</v>
       </c>
       <c r="I18">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="J18">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.01723733333333333</v>
+        <v>0.04091133333333333</v>
       </c>
       <c r="N18">
-        <v>0.051712</v>
+        <v>0.122734</v>
       </c>
       <c r="O18">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="P18">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="Q18">
-        <v>0.05131533448533333</v>
+        <v>0.00872761474</v>
       </c>
       <c r="R18">
-        <v>0.461838010368</v>
+        <v>0.07854853266</v>
       </c>
       <c r="S18">
-        <v>0.0002128917544643177</v>
+        <v>3.327611429558906E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002128917544643178</v>
+        <v>3.327611429558906E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.976988</v>
+        <v>0.21333</v>
       </c>
       <c r="H19">
-        <v>8.930963999999999</v>
+        <v>0.6399899999999999</v>
       </c>
       <c r="I19">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="J19">
-        <v>0.1402968436177623</v>
+        <v>0.01101917455864245</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.128277</v>
+        <v>0.010653</v>
       </c>
       <c r="N19">
-        <v>0.384831</v>
+        <v>0.031959</v>
       </c>
       <c r="O19">
-        <v>0.01129248845327496</v>
+        <v>0.000786342660716947</v>
       </c>
       <c r="P19">
-        <v>0.01129248845327496</v>
+        <v>0.0007863426607169469</v>
       </c>
       <c r="Q19">
-        <v>0.381879089676</v>
+        <v>0.00227260449</v>
       </c>
       <c r="R19">
-        <v>3.436911807084</v>
+        <v>0.02045344041</v>
       </c>
       <c r="S19">
-        <v>0.001584300486584503</v>
+        <v>8.664847041347392E-06</v>
       </c>
       <c r="T19">
-        <v>0.001584300486584504</v>
+        <v>8.664847041347391E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.018569</v>
+        <v>0.030461</v>
       </c>
       <c r="H20">
-        <v>0.05570700000000001</v>
+        <v>0.09138300000000001</v>
       </c>
       <c r="I20">
-        <v>0.0008751033222633847</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="J20">
-        <v>0.0008751033222633846</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.184475000000001</v>
+        <v>11.195312</v>
       </c>
       <c r="N20">
-        <v>24.553425</v>
+        <v>33.585936</v>
       </c>
       <c r="O20">
-        <v>0.7204961874195497</v>
+        <v>0.8263729865424168</v>
       </c>
       <c r="P20">
-        <v>0.7204961874195498</v>
+        <v>0.8263729865424166</v>
       </c>
       <c r="Q20">
-        <v>0.151977516275</v>
+        <v>0.3410203988320001</v>
       </c>
       <c r="R20">
-        <v>1.367797646475</v>
+        <v>3.069183589488</v>
       </c>
       <c r="S20">
-        <v>0.0006305086072889502</v>
+        <v>0.001300221664993086</v>
       </c>
       <c r="T20">
-        <v>0.0006305086072889502</v>
+        <v>0.001300221664993086</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.018569</v>
+        <v>0.030461</v>
       </c>
       <c r="H21">
-        <v>0.05570700000000001</v>
+        <v>0.09138300000000001</v>
       </c>
       <c r="I21">
-        <v>0.0008751033222633847</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="J21">
-        <v>0.0008751033222633846</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.967152</v>
       </c>
       <c r="O21">
-        <v>0.1751002259665582</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="P21">
-        <v>0.1751002259665583</v>
+        <v>0.1468201815007494</v>
       </c>
       <c r="Q21">
-        <v>0.03693468182933334</v>
+        <v>0.06058847235733334</v>
       </c>
       <c r="R21">
-        <v>0.3324121364640001</v>
+        <v>0.5452962512160001</v>
       </c>
       <c r="S21">
-        <v>0.0001532307894724045</v>
+        <v>0.0002310080120651342</v>
       </c>
       <c r="T21">
-        <v>0.0001532307894724045</v>
+        <v>0.0002310080120651342</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.018569</v>
+        <v>0.030461</v>
       </c>
       <c r="H22">
-        <v>0.05570700000000001</v>
+        <v>0.09138300000000001</v>
       </c>
       <c r="I22">
-        <v>0.0008751033222633847</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="J22">
-        <v>0.0008751033222633846</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.271258</v>
+        <v>0.02602966666666666</v>
       </c>
       <c r="N22">
-        <v>0.813774</v>
+        <v>0.07808899999999999</v>
       </c>
       <c r="O22">
-        <v>0.02387940030448528</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="P22">
-        <v>0.02387940030448529</v>
+        <v>0.001921358992231473</v>
       </c>
       <c r="Q22">
-        <v>0.005036989802000001</v>
+        <v>0.0007928896763333333</v>
       </c>
       <c r="R22">
-        <v>0.04533290821800001</v>
+        <v>0.007136007087</v>
       </c>
       <c r="S22">
-        <v>2.089694254011235E-05</v>
+        <v>3.023081137224971E-06</v>
       </c>
       <c r="T22">
-        <v>2.089694254011235E-05</v>
+        <v>3.023081137224971E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.018569</v>
+        <v>0.030461</v>
       </c>
       <c r="H23">
-        <v>0.05570700000000001</v>
+        <v>0.09138300000000001</v>
       </c>
       <c r="I23">
-        <v>0.0008751033222633847</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="J23">
-        <v>0.0008751033222633846</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7692</v>
+        <v>0.2855723333333333</v>
       </c>
       <c r="N23">
-        <v>2.3076</v>
+        <v>0.856717</v>
       </c>
       <c r="O23">
-        <v>0.06771425990831635</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="P23">
-        <v>0.06771425990831637</v>
+        <v>0.02107929300858727</v>
       </c>
       <c r="Q23">
-        <v>0.0142832748</v>
+        <v>0.008698818845666667</v>
       </c>
       <c r="R23">
-        <v>0.1285494732</v>
+        <v>0.078289369611</v>
       </c>
       <c r="S23">
-        <v>5.925697381037396E-05</v>
+        <v>3.316632307546473E-05</v>
       </c>
       <c r="T23">
-        <v>5.925697381037396E-05</v>
+        <v>3.316632307546472E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.018569</v>
+        <v>0.030461</v>
       </c>
       <c r="H24">
-        <v>0.05570700000000001</v>
+        <v>0.09138300000000001</v>
       </c>
       <c r="I24">
-        <v>0.0008751033222633847</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="J24">
-        <v>0.0008751033222633846</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.01723733333333333</v>
+        <v>0.04091133333333333</v>
       </c>
       <c r="N24">
-        <v>0.051712</v>
+        <v>0.122734</v>
       </c>
       <c r="O24">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="P24">
-        <v>0.001517437947815417</v>
+        <v>0.003019837295298156</v>
       </c>
       <c r="Q24">
-        <v>0.0003200800426666667</v>
+        <v>0.001246200124666667</v>
       </c>
       <c r="R24">
-        <v>0.002880720384</v>
+        <v>0.011215801122</v>
       </c>
       <c r="S24">
-        <v>1.327914989461804E-06</v>
+        <v>4.751435417231232E-06</v>
       </c>
       <c r="T24">
-        <v>1.327914989461804E-06</v>
+        <v>4.751435417231231E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.018569</v>
+        <v>0.030461</v>
       </c>
       <c r="H25">
-        <v>0.05570700000000001</v>
+        <v>0.09138300000000001</v>
       </c>
       <c r="I25">
-        <v>0.0008751033222633847</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="J25">
-        <v>0.0008751033222633846</v>
+        <v>0.001573407754328072</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.128277</v>
+        <v>0.010653</v>
       </c>
       <c r="N25">
-        <v>0.384831</v>
+        <v>0.031959</v>
       </c>
       <c r="O25">
-        <v>0.01129248845327496</v>
+        <v>0.000786342660716947</v>
       </c>
       <c r="P25">
-        <v>0.01129248845327496</v>
+        <v>0.0007863426607169469</v>
       </c>
       <c r="Q25">
-        <v>0.002381975613</v>
+        <v>0.0003245010330000001</v>
       </c>
       <c r="R25">
-        <v>0.02143778051700001</v>
+        <v>0.002920509297000001</v>
       </c>
       <c r="S25">
-        <v>9.882094162081826E-06</v>
+        <v>1.237237639931013E-06</v>
       </c>
       <c r="T25">
-        <v>9.882094162081828E-06</v>
+        <v>1.237237639931012E-06</v>
       </c>
     </row>
   </sheetData>
